--- a/analysis/KEGG_raw_data/PNAscr_16h_vs_H2O_16h_KEGG_FNV_16h.xlsx
+++ b/analysis/KEGG_raw_data/PNAscr_16h_vs_H2O_16h_KEGG_FNV_16h.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="301">
   <si>
     <t>NGenes</t>
   </si>
@@ -50,9 +50,15 @@
     <t>fnc03410</t>
   </si>
   <si>
+    <t>fnc01501</t>
+  </si>
+  <si>
     <t>fnc00310</t>
   </si>
   <si>
+    <t>fnc00710</t>
+  </si>
+  <si>
     <t>fnc00552</t>
   </si>
   <si>
@@ -77,9 +83,6 @@
     <t>fnc00430</t>
   </si>
   <si>
-    <t>fnc01501</t>
-  </si>
-  <si>
     <t>fnc00561</t>
   </si>
   <si>
@@ -95,30 +98,27 @@
     <t>fnc00470</t>
   </si>
   <si>
+    <t>fnc01100</t>
+  </si>
+  <si>
     <t>fnc03060</t>
   </si>
   <si>
     <t>fnc02060</t>
   </si>
   <si>
-    <t>fnc01100</t>
+    <t>fnc01502</t>
+  </si>
+  <si>
+    <t>fnc01200</t>
   </si>
   <si>
     <t>fnc00400</t>
   </si>
   <si>
-    <t>fnc01502</t>
-  </si>
-  <si>
-    <t>fnc01200</t>
-  </si>
-  <si>
     <t>fnc00362</t>
   </si>
   <si>
-    <t>fnc00401</t>
-  </si>
-  <si>
     <t>fnc00030</t>
   </si>
   <si>
@@ -140,6 +140,12 @@
     <t>fnc00051</t>
   </si>
   <si>
+    <t>fnc00720</t>
+  </si>
+  <si>
+    <t>fnc00350</t>
+  </si>
+  <si>
     <t>fnc00540</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
     <t>fnc00410</t>
   </si>
   <si>
+    <t>fnc01503</t>
+  </si>
+  <si>
     <t>fnc00280</t>
   </si>
   <si>
@@ -176,7 +185,7 @@
     <t>fnc00740</t>
   </si>
   <si>
-    <t>fnc01503</t>
+    <t>fnc00920</t>
   </si>
   <si>
     <t>fnc00380</t>
@@ -191,132 +200,135 @@
     <t>fnc00640</t>
   </si>
   <si>
+    <t>fnc00360</t>
+  </si>
+  <si>
+    <t>fnc01212</t>
+  </si>
+  <si>
+    <t>fnc01250</t>
+  </si>
+  <si>
+    <t>fnc02040</t>
+  </si>
+  <si>
+    <t>fnc00290</t>
+  </si>
+  <si>
+    <t>fnc00480</t>
+  </si>
+  <si>
+    <t>fnc04981</t>
+  </si>
+  <si>
+    <t>fnc00860</t>
+  </si>
+  <si>
+    <t>fnc00130</t>
+  </si>
+  <si>
+    <t>fnc00040</t>
+  </si>
+  <si>
+    <t>fnc00190</t>
+  </si>
+  <si>
+    <t>fnc00052</t>
+  </si>
+  <si>
+    <t>fnc00900</t>
+  </si>
+  <si>
+    <t>fnc04980</t>
+  </si>
+  <si>
+    <t>fnc00450</t>
+  </si>
+  <si>
+    <t>fnc00521</t>
+  </si>
+  <si>
+    <t>fnc00970</t>
+  </si>
+  <si>
+    <t>fnc00260</t>
+  </si>
+  <si>
+    <t>fnc00770</t>
+  </si>
+  <si>
+    <t>fnc00790</t>
+  </si>
+  <si>
+    <t>fnc00620</t>
+  </si>
+  <si>
+    <t>fnc03430</t>
+  </si>
+  <si>
+    <t>fnc00340</t>
+  </si>
+  <si>
+    <t>fnc00330</t>
+  </si>
+  <si>
+    <t>fnc00523</t>
+  </si>
+  <si>
     <t>fnc00760</t>
   </si>
   <si>
-    <t>fnc01212</t>
-  </si>
-  <si>
-    <t>fnc01250</t>
-  </si>
-  <si>
-    <t>fnc02040</t>
-  </si>
-  <si>
-    <t>fnc00290</t>
-  </si>
-  <si>
-    <t>fnc00480</t>
-  </si>
-  <si>
-    <t>fnc00920</t>
-  </si>
-  <si>
-    <t>fnc00860</t>
-  </si>
-  <si>
-    <t>fnc00130</t>
-  </si>
-  <si>
-    <t>fnc00040</t>
-  </si>
-  <si>
-    <t>fnc00190</t>
-  </si>
-  <si>
-    <t>fnc00350</t>
-  </si>
-  <si>
-    <t>fnc00052</t>
-  </si>
-  <si>
-    <t>fnc00900</t>
-  </si>
-  <si>
-    <t>fnc00450</t>
-  </si>
-  <si>
-    <t>fnc00521</t>
-  </si>
-  <si>
-    <t>fnc00970</t>
-  </si>
-  <si>
-    <t>fnc00260</t>
-  </si>
-  <si>
-    <t>fnc00770</t>
-  </si>
-  <si>
-    <t>fnc00790</t>
-  </si>
-  <si>
-    <t>fnc00620</t>
-  </si>
-  <si>
-    <t>fnc03430</t>
-  </si>
-  <si>
-    <t>fnc00340</t>
-  </si>
-  <si>
-    <t>fnc00330</t>
+    <t>fnc00300</t>
+  </si>
+  <si>
+    <t>fnc03420</t>
   </si>
   <si>
     <t>fnc00270</t>
   </si>
   <si>
+    <t>fnc03020</t>
+  </si>
+  <si>
+    <t>fnc03070</t>
+  </si>
+  <si>
+    <t>fnc00564</t>
+  </si>
+  <si>
+    <t>fnc03440</t>
+  </si>
+  <si>
+    <t>fnc00730</t>
+  </si>
+  <si>
+    <t>fnc00061</t>
+  </si>
+  <si>
+    <t>fnc00520</t>
+  </si>
+  <si>
     <t>fnc01230</t>
   </si>
   <si>
-    <t>fnc00523</t>
-  </si>
-  <si>
     <t>fnc02020</t>
   </si>
   <si>
-    <t>fnc00300</t>
-  </si>
-  <si>
-    <t>fnc03420</t>
+    <t>fnc00680</t>
   </si>
   <si>
     <t>fnc00670</t>
   </si>
   <si>
-    <t>fnc03020</t>
-  </si>
-  <si>
-    <t>fnc03070</t>
-  </si>
-  <si>
-    <t>fnc00564</t>
-  </si>
-  <si>
-    <t>fnc03440</t>
-  </si>
-  <si>
-    <t>fnc00730</t>
-  </si>
-  <si>
-    <t>fnc00061</t>
-  </si>
-  <si>
-    <t>fnc00520</t>
-  </si>
-  <si>
-    <t>fnc00360</t>
-  </si>
-  <si>
-    <t>fnc00680</t>
-  </si>
-  <si>
     <t>fnc01232</t>
   </si>
   <si>
     <t>fnc00020</t>
   </si>
   <si>
+    <t>fnc00074</t>
+  </si>
+  <si>
     <t>fnc04122</t>
   </si>
   <si>
@@ -338,9 +350,15 @@
     <t>Base excision repair</t>
   </si>
   <si>
+    <t>beta-Lactam resistance</t>
+  </si>
+  <si>
     <t>Lysine degradation</t>
   </si>
   <si>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
     <t>Teichoic acid biosynthesis</t>
   </si>
   <si>
@@ -362,9 +380,6 @@
     <t>Taurine and hypotaurine metabolism</t>
   </si>
   <si>
-    <t>beta-Lactam resistance</t>
-  </si>
-  <si>
     <t>Glycerolipid metabolism</t>
   </si>
   <si>
@@ -380,30 +395,27 @@
     <t>D-Amino acid metabolism</t>
   </si>
   <si>
+    <t>Metabolic pathways</t>
+  </si>
+  <si>
     <t>Protein export</t>
   </si>
   <si>
     <t>Phosphotransferase system (PTS)</t>
   </si>
   <si>
-    <t>Metabolic pathways</t>
+    <t>Vancomycin resistance</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
   </si>
   <si>
     <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
   </si>
   <si>
-    <t>Vancomycin resistance</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
     <t>Benzoate degradation</t>
   </si>
   <si>
-    <t>Novobiocin biosynthesis</t>
-  </si>
-  <si>
     <t>Pentose phosphate pathway</t>
   </si>
   <si>
@@ -425,6 +437,12 @@
     <t>Fructose and mannose metabolism</t>
   </si>
   <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
     <t>Lipopolysaccharide biosynthesis</t>
   </si>
   <si>
@@ -437,6 +455,9 @@
     <t>beta-Alanine metabolism</t>
   </si>
   <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+  </si>
+  <si>
     <t>Valine, leucine and isoleucine degradation</t>
   </si>
   <si>
@@ -461,7 +482,7 @@
     <t>Riboflavin metabolism</t>
   </si>
   <si>
-    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+    <t>Sulfur metabolism</t>
   </si>
   <si>
     <t>Tryptophan metabolism</t>
@@ -476,132 +497,135 @@
     <t>Propanoate metabolism</t>
   </si>
   <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>Flagellar assembly</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine biosynthesis</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Aminoacyl-tRNA biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>Mismatch repair</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>Polyketide sugar unit biosynthesis</t>
+  </si>
+  <si>
     <t>Nicotinate and nicotinamide metabolism</t>
   </si>
   <si>
-    <t>Fatty acid metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of nucleotide sugars</t>
-  </si>
-  <si>
-    <t>Flagellar assembly</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine biosynthesis</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
-  </si>
-  <si>
-    <t>Sulfur metabolism</t>
-  </si>
-  <si>
-    <t>Porphyrin metabolism</t>
-  </si>
-  <si>
-    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
-  </si>
-  <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>Tyrosine metabolism</t>
-  </si>
-  <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
-    <t>Terpenoid backbone biosynthesis</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>Streptomycin biosynthesis</t>
-  </si>
-  <si>
-    <t>Aminoacyl-tRNA biosynthesis</t>
-  </si>
-  <si>
-    <t>Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
-    <t>Pantothenate and CoA biosynthesis</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis</t>
-  </si>
-  <si>
-    <t>Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t>Mismatch repair</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
-    <t>Arginine and proline metabolism</t>
+    <t>Lysine biosynthesis</t>
+  </si>
+  <si>
+    <t>Nucleotide excision repair</t>
   </si>
   <si>
     <t>Cysteine and methionine metabolism</t>
   </si>
   <si>
+    <t>RNA polymerase</t>
+  </si>
+  <si>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
     <t>Biosynthesis of amino acids</t>
   </si>
   <si>
-    <t>Polyketide sugar unit biosynthesis</t>
-  </si>
-  <si>
     <t>Two-component system</t>
   </si>
   <si>
-    <t>Lysine biosynthesis</t>
-  </si>
-  <si>
-    <t>Nucleotide excision repair</t>
+    <t>Methane metabolism</t>
   </si>
   <si>
     <t>One carbon pool by folate</t>
   </si>
   <si>
-    <t>RNA polymerase</t>
-  </si>
-  <si>
-    <t>Bacterial secretion system</t>
-  </si>
-  <si>
-    <t>Glycerophospholipid metabolism</t>
-  </si>
-  <si>
-    <t>Homologous recombination</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>Fatty acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism</t>
-  </si>
-  <si>
-    <t>Methane metabolism</t>
-  </si>
-  <si>
     <t>Nucleotide metabolism</t>
   </si>
   <si>
     <t>Citrate cycle (TCA cycle)</t>
   </si>
   <si>
+    <t>Mycolic acid biosynthesis</t>
+  </si>
+  <si>
     <t>Sulfur relay system</t>
   </si>
   <si>
@@ -617,9 +641,15 @@
     <t>HMPREF0946_RS05170;HMPREF0946_RS06780</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03505;HMPREF0946_RS03720;HMPREF0946_RS06350;HMPREF0946_RS06980;HMPREF0946_RS06985;HMPREF0946_RS06990;HMPREF0946_RS01185</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01825;HMPREF0946_RS01820</t>
   </si>
   <si>
+    <t>HMPREF0946_RS04180;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS06495;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS03035</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS06830;HMPREF0946_RS09785;HMPREF0946_RS09860</t>
   </si>
   <si>
@@ -644,9 +674,6 @@
     <t>HMPREF0946_RS03565;HMPREF0946_RS06425</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03720;HMPREF0946_RS06350;HMPREF0946_RS06980;HMPREF0946_RS01185</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS01975</t>
   </si>
   <si>
@@ -662,30 +689,27 @@
     <t>HMPREF0946_RS03580;HMPREF0946_RS09060;HMPREF0946_RS09990;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01175;HMPREF0946_RS03320</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03370;HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS03565;HMPREF0946_RS03580;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03650;HMPREF0946_RS03720;HMPREF0946_RS03775;HMPREF0946_RS03800;HMPREF0946_RS03850;HMPREF0946_RS03975;HMPREF0946_RS04070;HMPREF0946_RS04095;HMPREF0946_RS04105;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04460;HMPREF0946_RS04465;HMPREF0946_RS04500;HMPREF0946_RS04505;HMPREF0946_RS04525;HMPREF0946_RS04575;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04720;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04955;HMPREF0946_RS04960;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05025;HMPREF0946_RS05060;HMPREF0946_RS05115;HMPREF0946_RS05175;HMPREF0946_RS05180;HMPREF0946_RS05260;HMPREF0946_RS05280;HMPREF0946_RS05305;HMPREF0946_RS05325;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05630;HMPREF0946_RS05705;HMPREF0946_RS05720;HMPREF0946_RS05725;HMPREF0946_RS05730;HMPREF0946_RS05745;HMPREF0946_RS05880;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06175;HMPREF0946_RS06285;HMPREF0946_RS06335;HMPREF0946_RS06350;HMPREF0946_RS06380;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS06435;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06595;HMPREF0946_RS06640;HMPREF0946_RS06670;HMPREF0946_RS06765;HMPREF0946_RS06775;HMPREF0946_RS06835;HMPREF0946_RS06930;HMPREF0946_RS07005;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07160;HMPREF0946_RS07180;HMPREF0946_RS07185;HMPREF0946_RS07220;HMPREF0946_RS07255;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07720;HMPREF0946_RS07750;HMPREF0946_RS07770;HMPREF0946_RS07775;HMPREF0946_RS07805;HMPREF0946_RS07810;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS08570;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09060;HMPREF0946_RS09120;HMPREF0946_RS09200;HMPREF0946_RS09205;HMPREF0946_RS09235;HMPREF0946_RS09240;HMPREF0946_RS09260;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09465;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS09880;HMPREF0946_RS09990;HMPREF0946_RS09995;HMPREF0946_RS10000;HMPREF0946_RS10005;HMPREF0946_RS10010;HMPREF0946_RS10015;HMPREF0946_RS10020;HMPREF0946_RS10025;HMPREF0946_RS10030;HMPREF0946_RS10035;HMPREF0946_RS10040;HMPREF0946_RS10050;HMPREF0946_RS10105;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10120;HMPREF0946_RS10125;HMPREF0946_RS10130;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS02840;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02810;HMPREF0946_RS02670;HMPREF0946_RS02555;HMPREF0946_RS02500;HMPREF0946_RS02495;HMPREF0946_RS02490;HMPREF0946_RS02350;HMPREF0946_RS02270;HMPREF0946_RS02210;HMPREF0946_RS01975;HMPREF0946_RS01940;HMPREF0946_RS01915;HMPREF0946_RS01900;HMPREF0946_RS01890;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01825;HMPREF0946_RS01820;HMPREF0946_RS01630;HMPREF0946_RS01610;HMPREF0946_RS01590;HMPREF0946_RS01575;HMPREF0946_RS01565;HMPREF0946_RS01410;HMPREF0946_RS01360;HMPREF0946_RS01035;HMPREF0946_RS01000;HMPREF0946_RS00990;HMPREF0946_RS00925;HMPREF0946_RS00340;HMPREF0946_RS00335;HMPREF0946_RS00310;HMPREF0946_RS00230;HMPREF0946_RS00220;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10865;HMPREF0946_RS10860;HMPREF0946_RS10640;HMPREF0946_RS10610;HMPREF0946_RS10540;HMPREF0946_RS03320;HMPREF0946_RS03305;HMPREF0946_RS03295;HMPREF0946_RS03290;HMPREF0946_RS03275;HMPREF0946_RS03270;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS02985;HMPREF0946_RS00650;HMPREF0946_RS00640;HMPREF0946_RS00550;HMPREF0946_RS00485;HMPREF0946_RS05545</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS09470;HMPREF0946_RS09475;HMPREF0946_RS10895</t>
   </si>
   <si>
     <t>HMPREF0946_RS05280;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09280;HMPREF0946_RS09520;HMPREF0946_RS01020;HMPREF0946_RS00685;HMPREF0946_RS00620</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03370;HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS03565;HMPREF0946_RS03580;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03650;HMPREF0946_RS03720;HMPREF0946_RS03775;HMPREF0946_RS03800;HMPREF0946_RS03850;HMPREF0946_RS03975;HMPREF0946_RS04070;HMPREF0946_RS04095;HMPREF0946_RS04105;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04460;HMPREF0946_RS04465;HMPREF0946_RS04500;HMPREF0946_RS04505;HMPREF0946_RS04525;HMPREF0946_RS04575;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04720;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04955;HMPREF0946_RS04960;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05025;HMPREF0946_RS05060;HMPREF0946_RS05115;HMPREF0946_RS05175;HMPREF0946_RS05180;HMPREF0946_RS05260;HMPREF0946_RS05280;HMPREF0946_RS05305;HMPREF0946_RS05325;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05630;HMPREF0946_RS05705;HMPREF0946_RS05720;HMPREF0946_RS05725;HMPREF0946_RS05730;HMPREF0946_RS05745;HMPREF0946_RS05880;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06175;HMPREF0946_RS06285;HMPREF0946_RS06335;HMPREF0946_RS06350;HMPREF0946_RS06380;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS06435;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06595;HMPREF0946_RS06640;HMPREF0946_RS06670;HMPREF0946_RS06765;HMPREF0946_RS06775;HMPREF0946_RS06835;HMPREF0946_RS06930;HMPREF0946_RS07005;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07160;HMPREF0946_RS07180;HMPREF0946_RS07185;HMPREF0946_RS07220;HMPREF0946_RS07255;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07720;HMPREF0946_RS07750;HMPREF0946_RS07770;HMPREF0946_RS07775;HMPREF0946_RS07805;HMPREF0946_RS07810;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS08570;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09060;HMPREF0946_RS09120;HMPREF0946_RS09200;HMPREF0946_RS09205;HMPREF0946_RS09235;HMPREF0946_RS09240;HMPREF0946_RS09260;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09465;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS09880;HMPREF0946_RS09990;HMPREF0946_RS09995;HMPREF0946_RS10000;HMPREF0946_RS10005;HMPREF0946_RS10010;HMPREF0946_RS10015;HMPREF0946_RS10020;HMPREF0946_RS10025;HMPREF0946_RS10030;HMPREF0946_RS10035;HMPREF0946_RS10040;HMPREF0946_RS10050;HMPREF0946_RS10105;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10120;HMPREF0946_RS10125;HMPREF0946_RS10130;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS02840;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02810;HMPREF0946_RS02670;HMPREF0946_RS02555;HMPREF0946_RS02500;HMPREF0946_RS02495;HMPREF0946_RS02490;HMPREF0946_RS02350;HMPREF0946_RS02270;HMPREF0946_RS02210;HMPREF0946_RS01975;HMPREF0946_RS01940;HMPREF0946_RS01915;HMPREF0946_RS01900;HMPREF0946_RS01890;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01825;HMPREF0946_RS01820;HMPREF0946_RS01630;HMPREF0946_RS01610;HMPREF0946_RS01590;HMPREF0946_RS01575;HMPREF0946_RS01565;HMPREF0946_RS01410;HMPREF0946_RS01360;HMPREF0946_RS01035;HMPREF0946_RS01005;HMPREF0946_RS01000;HMPREF0946_RS00990;HMPREF0946_RS00925;HMPREF0946_RS00340;HMPREF0946_RS00335;HMPREF0946_RS00310;HMPREF0946_RS00230;HMPREF0946_RS00220;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10865;HMPREF0946_RS10860;HMPREF0946_RS10640;HMPREF0946_RS10610;HMPREF0946_RS10540;HMPREF0946_RS03320;HMPREF0946_RS03305;HMPREF0946_RS03295;HMPREF0946_RS03290;HMPREF0946_RS03275;HMPREF0946_RS03270;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS02985;HMPREF0946_RS00650;HMPREF0946_RS00640;HMPREF0946_RS00550;HMPREF0946_RS00485;HMPREF0946_RS05545</t>
-  </si>
-  <si>
-    <t>HMPREF0946_RS04850;HMPREF0946_RS06335;HMPREF0946_RS07870;HMPREF0946_RS09260</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03580;HMPREF0946_RS09060</t>
   </si>
   <si>
     <t>HMPREF0946_RS03590;HMPREF0946_RS04095;HMPREF0946_RS04105;HMPREF0946_RS04180;HMPREF0946_RS04460;HMPREF0946_RS04685;HMPREF0946_RS04735;HMPREF0946_RS05745;HMPREF0946_RS05750;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06390;HMPREF0946_RS06425;HMPREF0946_RS06495;HMPREF0946_RS06595;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09265;HMPREF0946_RS10960;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS01900;HMPREF0946_RS01890;HMPREF0946_RS00220;HMPREF0946_RS10540;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03035;HMPREF0946_RS00550</t>
   </si>
   <si>
+    <t>HMPREF0946_RS04850;HMPREF0946_RS06335;HMPREF0946_RS09260</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03590;HMPREF0946_RS05745;HMPREF0946_RS02500;HMPREF0946_RS02480;HMPREF0946_RS02475</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06335;HMPREF0946_RS07870</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04740;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10540;HMPREF0946_RS00550</t>
   </si>
   <si>
@@ -707,6 +731,12 @@
     <t>HMPREF0946_RS04740;HMPREF0946_RS08275;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS02810;HMPREF0946_RS03035</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03590;HMPREF0946_RS04095;HMPREF0946_RS04460;HMPREF0946_RS04735;HMPREF0946_RS06425;HMPREF0946_RS09265;HMPREF0946_RS00220;HMPREF0946_RS03195;HMPREF0946_RS03190</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS06335;HMPREF0946_RS00570</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03800;HMPREF0946_RS03975;HMPREF0946_RS05180;HMPREF0946_RS05630;HMPREF0946_RS05730;HMPREF0946_RS06835;HMPREF0946_RS02555</t>
   </si>
   <si>
@@ -719,6 +749,9 @@
     <t>HMPREF0946_RS03405;HMPREF0946_RS04685</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03345;HMPREF0946_RS03505;HMPREF0946_RS06980;HMPREF0946_RS06985;HMPREF0946_RS06990;HMPREF0946_RS07310</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS04685</t>
   </si>
   <si>
@@ -731,7 +764,7 @@
     <t>HMPREF0946_RS03720;HMPREF0946_RS06350;HMPREF0946_RS06775;HMPREF0946_RS07270;HMPREF0946_RS09060;HMPREF0946_RS09860;HMPREF0946_RS10640</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03775;HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04500;HMPREF0946_RS04525;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05235;HMPREF0946_RS05305;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06670;HMPREF0946_RS07140;HMPREF0946_RS07185;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07270;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07775;HMPREF0946_RS07810;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09120;HMPREF0946_RS09260;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09880;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02395;HMPREF0946_RS02270;HMPREF0946_RS01185;HMPREF0946_RS10540;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS00650;HMPREF0946_RS00550</t>
+    <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03775;HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04500;HMPREF0946_RS04525;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05235;HMPREF0946_RS05305;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06670;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07185;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07270;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07775;HMPREF0946_RS07810;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09120;HMPREF0946_RS09260;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09880;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02395;HMPREF0946_RS02270;HMPREF0946_RS01185;HMPREF0946_RS10540;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS00650;HMPREF0946_RS00550</t>
   </si>
   <si>
     <t>HMPREF0946_RS04955;HMPREF0946_RS04960;HMPREF0946_RS01035</t>
@@ -743,7 +776,7 @@
     <t>HMPREF0946_RS04290;HMPREF0946_RS04505;HMPREF0946_RS05060;HMPREF0946_RS09340;HMPREF0946_RS09355</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03345;HMPREF0946_RS06980;HMPREF0946_RS07310</t>
+    <t>HMPREF0946_RS05705;HMPREF0946_RS05910;HMPREF0946_RS06065;HMPREF0946_RS01410</t>
   </si>
   <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS00925</t>
@@ -758,7 +791,7 @@
     <t>HMPREF0946_RS04685;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS03195;HMPREF0946_RS03190</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06435;HMPREF0946_RS06640;HMPREF0946_RS07805;HMPREF0946_RS08570;HMPREF0946_RS01005;HMPREF0946_RS10865;HMPREF0946_RS10860</t>
+    <t>HMPREF0946_RS05745;HMPREF0946_RS06335</t>
   </si>
   <si>
     <t>HMPREF0946_RS03590;HMPREF0946_RS04685;HMPREF0946_RS05025;HMPREF0946_RS06175;HMPREF0946_RS02350;HMPREF0946_RS02210;HMPREF0946_RS01915;HMPREF0946_RS03195;HMPREF0946_RS03190</t>
@@ -776,7 +809,7 @@
     <t>HMPREF0946_RS03370;HMPREF0946_RS07005;HMPREF0946_RS01610;HMPREF0946_RS00485</t>
   </si>
   <si>
-    <t>HMPREF0946_RS05705;HMPREF0946_RS05910;HMPREF0946_RS01410</t>
+    <t>HMPREF0946_RS05175;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270</t>
   </si>
   <si>
     <t>HMPREF0946_RS03775;HMPREF0946_RS05260;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS06930;HMPREF0946_RS07160;HMPREF0946_RS00340;HMPREF0946_RS10610;HMPREF0946_RS03170;HMPREF0946_RS00640;HMPREF0946_RS05545</t>
@@ -791,15 +824,15 @@
     <t>HMPREF0946_RS07750;HMPREF0946_RS09995;HMPREF0946_RS10000;HMPREF0946_RS10005;HMPREF0946_RS10010;HMPREF0946_RS10015;HMPREF0946_RS10020;HMPREF0946_RS10025;HMPREF0946_RS10030;HMPREF0946_RS10035;HMPREF0946_RS10405;HMPREF0946_RS02090</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06335;HMPREF0946_RS07870;HMPREF0946_RS00570</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS06390;HMPREF0946_RS09880;HMPREF0946_RS00090;HMPREF0946_RS00085</t>
   </si>
   <si>
     <t>HMPREF0946_RS03590;HMPREF0946_RS06670;HMPREF0946_RS07260;HMPREF0946_RS07270;HMPREF0946_RS07275;HMPREF0946_RS09120;HMPREF0946_RS00650</t>
   </si>
   <si>
+    <t>HMPREF0946_RS07160;HMPREF0946_RS02270</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS04500;HMPREF0946_RS06385;HMPREF0946_RS06575;HMPREF0946_RS10215;HMPREF0946_RS02270</t>
   </si>
   <si>
@@ -830,16 +863,10 @@
     <t>HMPREF0946_RS03405;HMPREF0946_RS03615;HMPREF0946_RS06335</t>
   </si>
   <si>
-    <t>HMPREF0946_RS04500;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06415;HMPREF0946_RS06575;HMPREF0946_RS07775;HMPREF0946_RS07870;HMPREF0946_RS10120;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02270</t>
-  </si>
-  <si>
-    <t>HMPREF0946_RS04180;HMPREF0946_RS04500;HMPREF0946_RS04650;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS05305;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS07010;HMPREF0946_RS07775;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09260;HMPREF0946_RS10960;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02270;HMPREF0946_RS03035;HMPREF0946_RS00550</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS09755</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03590;HMPREF0946_RS05375;HMPREF0946_RS06915;HMPREF0946_RS06920;HMPREF0946_RS06980;HMPREF0946_RS07010;HMPREF0946_RS08295;HMPREF0946_RS02435;HMPREF0946_RS02430;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01875;HMPREF0946_RS00110;HMPREF0946_RS00105;HMPREF0946_RS00100</t>
+    <t>HMPREF0946_RS06435;HMPREF0946_RS06640;HMPREF0946_RS07805;HMPREF0946_RS08570;HMPREF0946_RS10865;HMPREF0946_RS10860</t>
   </si>
   <si>
     <t>HMPREF0946_RS06775</t>
@@ -848,7 +875,7 @@
     <t>HMPREF0946_RS03715;HMPREF0946_RS03955;HMPREF0946_RS10825</t>
   </si>
   <si>
-    <t>HMPREF0946_RS04460;HMPREF0946_RS05175;HMPREF0946_RS05595;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270;HMPREF0946_RS00220</t>
+    <t>HMPREF0946_RS04500;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06415;HMPREF0946_RS06575;HMPREF0946_RS07775;HMPREF0946_RS10120;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02270</t>
   </si>
   <si>
     <t>HMPREF0946_RS07065</t>
@@ -872,10 +899,16 @@
     <t>HMPREF0946_RS03850;HMPREF0946_RS04995;HMPREF0946_RS05280;HMPREF0946_RS06285;HMPREF0946_RS06390;HMPREF0946_RS07720;HMPREF0946_RS09200;HMPREF0946_RS09205;HMPREF0946_RS09520;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10540</t>
   </si>
   <si>
-    <t>HMPREF0946_RS05745;HMPREF0946_RS06335;HMPREF0946_RS07870</t>
+    <t>HMPREF0946_RS04180;HMPREF0946_RS04500;HMPREF0946_RS04650;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS05305;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS07010;HMPREF0946_RS07775;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09260;HMPREF0946_RS10960;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02270;HMPREF0946_RS03035;HMPREF0946_RS00550</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS03590;HMPREF0946_RS05375;HMPREF0946_RS06915;HMPREF0946_RS06920;HMPREF0946_RS06980;HMPREF0946_RS07010;HMPREF0946_RS08295;HMPREF0946_RS02590;HMPREF0946_RS02585;HMPREF0946_RS02435;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01875;HMPREF0946_RS00110;HMPREF0946_RS00105;HMPREF0946_RS00100</t>
   </si>
   <si>
     <t>HMPREF0946_RS04740;HMPREF0946_RS06425;HMPREF0946_RS08275;HMPREF0946_RS10960;HMPREF0946_RS10120</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS04460;HMPREF0946_RS05175;HMPREF0946_RS05595;HMPREF0946_RS07775;HMPREF0946_RS09265;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270;HMPREF0946_RS00220</t>
   </si>
   <si>
     <t>HMPREF0946_RS07140;HMPREF0946_RS07255;HMPREF0946_RS07705;HMPREF0946_RS09240;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS01630;HMPREF0946_RS01590;HMPREF0946_RS01575;HMPREF0946_RS01360;HMPREF0946_RS00230</t>
@@ -967,25 +1000,25 @@
         <v>3.0</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
         <v>1.575277358213506E-5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0014492551695564255</v>
+        <v>0.0014965134903028308</v>
       </c>
       <c r="F2" t="n">
         <v>0.17029635249335295</v>
       </c>
       <c r="G2" t="n">
-        <v>0.32015714268750356</v>
+        <v>0.30343713716997434</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -996,25 +1029,25 @@
         <v>8.0</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
         <v>5.352400147532115E-5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002462104067864773</v>
+        <v>0.0025423900700777546</v>
       </c>
       <c r="F3" t="n">
         <v>0.0016174188026082954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00790783566550808</v>
+        <v>0.007637102010244243</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -1025,25 +1058,25 @@
         <v>6.0</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D4" t="n">
         <v>1.2965346853713216E-4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003976039701805386</v>
+        <v>0.004105693170342518</v>
       </c>
       <c r="F4" t="n">
         <v>0.022714289577968772</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05770657352240715</v>
+        <v>0.058578957332656306</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -1054,25 +1087,25 @@
         <v>2.0</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D5" t="n">
         <v>0.001222445825111905</v>
       </c>
       <c r="E5" t="n">
-        <v>0.028116253977573814</v>
+        <v>0.02903308834640774</v>
       </c>
       <c r="F5" t="n">
         <v>0.6173627359825957</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7345835086375189</v>
+        <v>0.7469326929172146</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -1080,28 +1113,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0028262305178168405</v>
+        <v>0.001863382922436042</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03875383295749709</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F6" t="n">
-        <v>0.026533372946973457</v>
+        <v>0.02176450173147583</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06395223223116679</v>
+        <v>0.05780943777179141</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
@@ -1109,28 +1142,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003128282949529662</v>
+        <v>0.0028262305178168405</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03875383295749709</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7619287500354001</v>
+        <v>0.026533372946973457</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8526345536110429</v>
+        <v>0.06342123289764387</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -1138,28 +1171,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003376726959351585</v>
+        <v>0.0029634522187373885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03875383295749709</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0038187347882811104</v>
+        <v>0.032366232232561895</v>
       </c>
       <c r="G8" t="n">
-        <v>0.015607003047757584</v>
+        <v>0.07208842633616058</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -1167,28 +1200,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>44.0</v>
+        <v>3.0</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004210841172557684</v>
+        <v>0.003128282949529662</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03875383295749709</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7234776900197062E-5</v>
+        <v>0.7619287500354001</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6253183365989777E-4</v>
+        <v>0.8582645690053932</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -1196,28 +1229,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004389334390935151</v>
+        <v>0.003376726959351585</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03875383295749709</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0017412256849054356</v>
+        <v>0.0038187347882811104</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00790783566550808</v>
+        <v>0.015593167052147866</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1225,28 +1258,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>6.0</v>
+        <v>44.0</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004726858798753537</v>
+        <v>0.004210841172557684</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03875383295749709</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F11" t="n">
-        <v>0.021349453484125414</v>
+        <v>1.7234776900197062E-5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05699014301878983</v>
+        <v>2.3949047591847057E-4</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1254,28 +1287,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>64.0</v>
+        <v>10.0</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004779543936118573</v>
+        <v>0.004389334390935151</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03875383295749709</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9550242932120046E-5</v>
+        <v>0.0017412256849054356</v>
       </c>
       <c r="G12" t="n">
-        <v>2.6253183365989777E-4</v>
+        <v>0.007756368960033303</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1283,28 +1316,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005054847777064837</v>
+        <v>0.004726858798753537</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03875383295749709</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F13" t="n">
-        <v>0.30427899202613734</v>
+        <v>0.021349453484125414</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4931418146630501</v>
+        <v>0.05780943777179141</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
@@ -1312,28 +1345,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>2.0</v>
+        <v>64.0</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006335384415726301</v>
+        <v>0.004779543936118573</v>
       </c>
       <c r="E14" t="n">
-        <v>0.039448482842981504</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5193362529046652</v>
+        <v>1.9550242932120046E-5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6941183653912915</v>
+        <v>2.3949047591847057E-4</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
@@ -1341,28 +1374,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006367970150459244</v>
+        <v>0.005054847777064837</v>
       </c>
       <c r="E15" t="n">
-        <v>0.039448482842981504</v>
+        <v>0.034300752772939966</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2831213262664514</v>
+        <v>0.30427899202613734</v>
       </c>
       <c r="G15" t="n">
-        <v>0.46690183629906024</v>
+        <v>0.4809571164284106</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16">
@@ -1370,28 +1403,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00643181785483394</v>
+        <v>0.006335384415726301</v>
       </c>
       <c r="E16" t="n">
-        <v>0.039448482842981504</v>
+        <v>0.03818891851307652</v>
       </c>
       <c r="F16" t="n">
-        <v>0.25439619762082555</v>
+        <v>0.5193362529046652</v>
       </c>
       <c r="G16" t="n">
-        <v>0.43478622866104727</v>
+        <v>0.7040970652962841</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
@@ -1399,28 +1432,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006868370145339277</v>
+        <v>0.00643181785483394</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03949312833570084</v>
+        <v>0.03818891851307652</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005613620511764356</v>
+        <v>0.25439619762082555</v>
       </c>
       <c r="G17" t="n">
-        <v>0.021107213124233977</v>
+        <v>0.4155137894473484</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
@@ -1428,28 +1461,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008815615161234422</v>
+        <v>0.006868370145339277</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04625548836946634</v>
+        <v>0.038382068459248894</v>
       </c>
       <c r="F18" t="n">
-        <v>5.270511779707426E-4</v>
+        <v>0.005613620511764356</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0035387721949464144</v>
+        <v>0.021159031159727188</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
@@ -1457,28 +1490,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009410421084726353</v>
+        <v>0.008815615161234422</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04625548836946634</v>
+        <v>0.045375628536351485</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5921172058948796</v>
+        <v>5.270511779707426E-4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7228443812223205</v>
+        <v>0.0034434010294088517</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
@@ -1486,28 +1519,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009552763902389787</v>
+        <v>0.009410421084726353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04625548836946634</v>
+        <v>0.045375628536351485</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004010986069777371</v>
+        <v>0.5921172058948796</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01570969543996137</v>
+        <v>0.7439421304833103</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
@@ -1515,28 +1548,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D21" t="n">
-        <v>0.012674043479754529</v>
+        <v>0.009552763902389787</v>
       </c>
       <c r="E21" t="n">
-        <v>0.053757649804907666</v>
+        <v>0.045375628536351485</v>
       </c>
       <c r="F21" t="n">
-        <v>0.41843243368894445</v>
+        <v>0.004010986069777371</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6145726369806371</v>
+        <v>0.015723065393527292</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
@@ -1544,28 +1577,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0</v>
+        <v>208.0</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D22" t="n">
-        <v>0.012780993382023572</v>
+        <v>0.010208722099163984</v>
       </c>
       <c r="E22" t="n">
-        <v>0.053757649804907666</v>
+        <v>0.04618231425812278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.008720364621696798</v>
+        <v>1.7694855481223093E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.030359787942203665</v>
+        <v>2.3949047591847057E-4</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
@@ -1573,28 +1606,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>210.0</v>
+        <v>3.0</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01285509017073879</v>
+        <v>0.012674043479754529</v>
       </c>
       <c r="E23" t="n">
-        <v>0.053757649804907666</v>
+        <v>0.0527910596214017</v>
       </c>
       <c r="F23" t="n">
-        <v>1.798595093952586E-5</v>
+        <v>0.41843243368894445</v>
       </c>
       <c r="G23" t="n">
-        <v>2.6253183365989777E-4</v>
+        <v>0.6120355000226352</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -1602,28 +1635,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D24" t="n">
-        <v>0.013864581436028334</v>
+        <v>0.012780993382023572</v>
       </c>
       <c r="E24" t="n">
-        <v>0.055458325744113336</v>
+        <v>0.0527910596214017</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5903816024748141</v>
+        <v>0.008720364621696798</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7228443812223205</v>
+        <v>0.03052127617593879</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -1634,13 +1667,13 @@
         <v>2.0</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D25" t="n">
         <v>0.015858502174039155</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05954390866823041</v>
+        <v>0.06130257923872338</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -1649,10 +1682,10 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1663,25 +1696,25 @@
         <v>32.0</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D26" t="n">
         <v>0.016180409964193045</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05954390866823041</v>
+        <v>0.06130257923872338</v>
       </c>
       <c r="F26" t="n">
         <v>7.660936837224837E-5</v>
       </c>
       <c r="G26" t="n">
-        <v>7.201280626991346E-4</v>
+        <v>6.825198273163945E-4</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -1689,28 +1722,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.019613859480798933</v>
+        <v>0.016777548002176925</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06837217021395944</v>
+        <v>0.06130257923872338</v>
       </c>
       <c r="F27" t="n">
-        <v>0.20178116372404808</v>
+        <v>0.8350750380553332</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3599561246750985</v>
+        <v>0.8993115794442049</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -1718,28 +1751,28 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D28" t="n">
-        <v>0.020065745606270707</v>
+        <v>0.019613859480798933</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06837217021395944</v>
+        <v>0.06901172780281106</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>0.20178116372404808</v>
       </c>
       <c r="G28" t="n">
-        <v>1.0</v>
+        <v>0.34692200078871427</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
@@ -1750,25 +1783,25 @@
         <v>10.0</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D29" t="n">
         <v>0.021246084650561353</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06980856385184445</v>
+        <v>0.07208493006440458</v>
       </c>
       <c r="F29" t="n">
         <v>0.010912379334339502</v>
       </c>
       <c r="G29" t="n">
-        <v>0.034192121914263775</v>
+        <v>0.03564710582550904</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30">
@@ -1779,25 +1812,25 @@
         <v>52.0</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D30" t="n">
         <v>0.022675027779188818</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07193457088570246</v>
+        <v>0.07428026341458406</v>
       </c>
       <c r="F30" t="n">
         <v>1.184158586027626E-4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0010119173371508803</v>
+        <v>8.926733956208258E-4</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -1808,25 +1841,25 @@
         <v>1.0</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" t="n">
         <v>0.029976333888891135</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09192742392593282</v>
+        <v>0.09492505731482193</v>
       </c>
       <c r="F31" t="n">
         <v>0.029976333888891135</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07044438463889417</v>
+        <v>0.06994477907407932</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32">
@@ -1837,25 +1870,25 @@
         <v>5.0</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D32" t="n">
         <v>0.03398293944929786</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09772831348875287</v>
+        <v>0.10091510631990785</v>
       </c>
       <c r="F32" t="n">
         <v>0.12658951417259706</v>
       </c>
       <c r="G32" t="n">
-        <v>0.24790446525466925</v>
+        <v>0.23407117714933043</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
@@ -1866,25 +1899,25 @@
         <v>1.0</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D33" t="n">
         <v>0.03399245686565317</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09772831348875287</v>
+        <v>0.10091510631990785</v>
       </c>
       <c r="F33" t="n">
         <v>0.03399245686565317</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07793392549686336</v>
+        <v>0.07402801717408912</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -1895,25 +1928,25 @@
         <v>58.0</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D34" t="n">
         <v>0.03514172527192602</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09797087045506649</v>
+        <v>0.10116557275251431</v>
       </c>
       <c r="F34" t="n">
         <v>5.8577461594833935E-5</v>
       </c>
       <c r="G34" t="n">
-        <v>6.118090433238211E-4</v>
+        <v>5.740591236293726E-4</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I34" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35">
@@ -1924,25 +1957,25 @@
         <v>7.0</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D35" t="n">
         <v>0.04074335213653974</v>
       </c>
       <c r="E35" t="n">
-        <v>0.11024671754593107</v>
+        <v>0.11384171920503751</v>
       </c>
       <c r="F35" t="n">
         <v>0.038114614232103876</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08530413661470868</v>
+        <v>0.08120069988578653</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36">
@@ -1950,28 +1983,28 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D36" t="n">
-        <v>0.054777228134903336</v>
+        <v>0.04364273067475159</v>
       </c>
       <c r="E36" t="n">
-        <v>0.13847018541021902</v>
+        <v>0.11845884040289718</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02574756010375674</v>
+        <v>0.02522651116644905</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06369133288824036</v>
+        <v>0.06308152225420402</v>
       </c>
       <c r="H36" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -1979,28 +2012,28 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>48.0</v>
+        <v>2.0</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D37" t="n">
-        <v>0.055072385387484435</v>
+        <v>0.05450937680363922</v>
       </c>
       <c r="E37" t="n">
-        <v>0.13847018541021902</v>
+        <v>0.13565292689992192</v>
       </c>
       <c r="F37" t="n">
-        <v>1.5566431060026408E-7</v>
+        <v>0.6155644496806243</v>
       </c>
       <c r="G37" t="n">
-        <v>4.8774817321416075E-6</v>
+        <v>0.7469326929172146</v>
       </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -2008,28 +2041,28 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05568909630628374</v>
+        <v>0.054777228134903336</v>
       </c>
       <c r="E38" t="n">
-        <v>0.13847018541021902</v>
+        <v>0.13565292689992192</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002184469504059551</v>
+        <v>0.02574756010375674</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009333642426436263</v>
+        <v>0.06308152225420402</v>
       </c>
       <c r="H38" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39">
@@ -2037,28 +2070,28 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0</v>
+        <v>48.0</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05967358805049129</v>
+        <v>0.055072385387484435</v>
       </c>
       <c r="E39" t="n">
-        <v>0.14447289738539998</v>
+        <v>0.13565292689992192</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5270487100793553</v>
+        <v>1.5566431060026408E-7</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6941183653912915</v>
+        <v>3.81377560970647E-6</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40">
@@ -2066,28 +2099,28 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06848789183573303</v>
+        <v>0.05568909630628374</v>
       </c>
       <c r="E40" t="n">
-        <v>0.16156118074070358</v>
+        <v>0.13565292689992192</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3403525254503661</v>
+        <v>0.002184469504059551</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5332189565389068</v>
+        <v>0.009307739625992871</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
@@ -2095,28 +2128,28 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07288601468248268</v>
+        <v>0.05967358805049129</v>
       </c>
       <c r="E41" t="n">
-        <v>0.16615924870098248</v>
+        <v>0.1417247716199168</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0015211287952383017</v>
+        <v>0.5270487100793553</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00790783566550808</v>
+        <v>0.7040970652962841</v>
       </c>
       <c r="H41" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42">
@@ -2124,28 +2157,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07404923039935088</v>
+        <v>0.0662512200003017</v>
       </c>
       <c r="E42" t="n">
-        <v>0.16615924870098248</v>
+        <v>0.15350892439094296</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>0.053221542038402854</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>0.10644308407680571</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I42" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43">
@@ -2153,28 +2186,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08951370746755512</v>
+        <v>0.06848789183573303</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1960776449289303</v>
+        <v>0.15491308867606282</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0151270580398998</v>
+        <v>0.3403525254503661</v>
       </c>
       <c r="G43" t="n">
-        <v>0.045031944653459416</v>
+        <v>0.5211648045958731</v>
       </c>
       <c r="H43" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44">
@@ -2182,28 +2215,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>69.0</v>
+        <v>19.0</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09275908886367606</v>
+        <v>0.07288601468248268</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1984613064060046</v>
+        <v>0.15987902018041666</v>
       </c>
       <c r="F44" t="n">
-        <v>5.27594450464982E-5</v>
+        <v>0.0015211287952383017</v>
       </c>
       <c r="G44" t="n">
-        <v>6.118090433238211E-4</v>
+        <v>0.007637102010244243</v>
       </c>
       <c r="H44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I44" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45">
@@ -2211,28 +2244,28 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09980288213732932</v>
+        <v>0.07404923039935088</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2086787535598704</v>
+        <v>0.15987902018041666</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7177045916625606</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8128220676660326</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I45" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46">
@@ -2240,28 +2273,28 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D46" t="n">
-        <v>0.11844136046474191</v>
+        <v>0.08951370746755512</v>
       </c>
       <c r="E46" t="n">
-        <v>0.24214678139458343</v>
+        <v>0.18897338243150524</v>
       </c>
       <c r="F46" t="n">
-        <v>0.32691655539003156</v>
+        <v>0.0151270580398998</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5208501051976774</v>
+        <v>0.04694819761743641</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I46" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47">
@@ -2269,28 +2302,28 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>5.0</v>
+        <v>69.0</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D47" t="n">
-        <v>0.12539932080427532</v>
+        <v>0.0945711909572502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.25079864160855064</v>
+        <v>0.19531006828127756</v>
       </c>
       <c r="F47" t="n">
-        <v>0.18400320684386762</v>
+        <v>4.584211386416734E-5</v>
       </c>
       <c r="G47" t="n">
-        <v>0.33914316555536383</v>
+        <v>4.991696842987111E-4</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
@@ -2301,25 +2334,25 @@
         <v>3.0</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15918115593757806</v>
+        <v>0.09980288213732932</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3115886456650464</v>
+        <v>0.20172922985204864</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0</v>
+        <v>0.7177045916625606</v>
       </c>
       <c r="G48" t="n">
-        <v>1.0</v>
+        <v>0.8274711762697757</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I48" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
@@ -2330,25 +2363,25 @@
         <v>3.0</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1671548602724096</v>
+        <v>0.11844136046474191</v>
       </c>
       <c r="E49" t="n">
-        <v>0.32038014885545174</v>
+        <v>0.23441519258646837</v>
       </c>
       <c r="F49" t="n">
-        <v>0.45022413770281183</v>
+        <v>0.32691655539003156</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6458841092572835</v>
+        <v>0.5085368639400492</v>
       </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I49" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50">
@@ -2356,28 +2389,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D50" t="n">
-        <v>0.17483079321616848</v>
+        <v>0.12539932080427532</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3282537342017857</v>
+        <v>0.24312113217155418</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0</v>
+        <v>0.18400320684386762</v>
       </c>
       <c r="G50" t="n">
-        <v>1.0</v>
+        <v>0.32200561197676836</v>
       </c>
       <c r="H50" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I50" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51">
@@ -2385,28 +2418,28 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D51" t="n">
-        <v>0.18331750661934912</v>
+        <v>0.13900482742717138</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3373042121796024</v>
+        <v>0.2641091721116256</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.9281744400053271</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0</v>
+        <v>0.9887075556578485</v>
       </c>
       <c r="H51" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I51" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52">
@@ -2414,28 +2447,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19678032984865684</v>
+        <v>0.1671548602724096</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3481964059124548</v>
+        <v>0.31136689658586103</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1077060129126161</v>
+        <v>0.45022413770281183</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2200948959518677</v>
+        <v>0.6445098877482253</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I52" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53">
@@ -2443,28 +2476,28 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1968066642113875</v>
+        <v>0.17483079321616848</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3481964059124548</v>
+        <v>0.3194024106833847</v>
       </c>
       <c r="F53" t="n">
-        <v>0.20295398518915128</v>
+        <v>1.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3599561246750985</v>
+        <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I53" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54">
@@ -2472,28 +2505,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D54" t="n">
-        <v>0.21218742086629144</v>
+        <v>0.18331750661934912</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3683253343339399</v>
+        <v>0.3285879835629843</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02182601221996206</v>
+        <v>1.0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05699014301878983</v>
+        <v>1.0</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I54" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55">
@@ -2501,28 +2534,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2218041431666922</v>
+        <v>0.19678032984865684</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3747861390437958</v>
+        <v>0.34618761732634074</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04166430165742681</v>
+        <v>0.1077060129126161</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0910801012976307</v>
+        <v>0.2069644954007133</v>
       </c>
       <c r="H55" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I55" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56">
@@ -2530,28 +2563,28 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D56" t="n">
-        <v>0.22459520608522338</v>
+        <v>0.20504725022434556</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3747861390437958</v>
+        <v>0.3541725231147787</v>
       </c>
       <c r="F56" t="n">
-        <v>0.22459520608522338</v>
+        <v>0.7502848309941288</v>
       </c>
       <c r="G56" t="n">
-        <v>0.39096202540761105</v>
+        <v>0.8549757376444723</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I56" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57">
@@ -2559,28 +2592,28 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D57" t="n">
-        <v>0.23420859102559521</v>
+        <v>0.21218742086629144</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3747861390437958</v>
+        <v>0.3599608032553158</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6693923056083562</v>
+        <v>0.02182601221996206</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7778342431711839</v>
+        <v>0.05780943777179141</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58">
@@ -2588,28 +2621,28 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D58" t="n">
-        <v>0.23483150782717024</v>
+        <v>0.2218041431666922</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3747861390437958</v>
+        <v>0.3678714582430383</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3857846953395858</v>
+        <v>0.04166430165742681</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5848993768051785</v>
+        <v>0.08687450132825164</v>
       </c>
       <c r="H58" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59">
@@ -2617,28 +2650,28 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23627821809282779</v>
+        <v>0.22459520608522338</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3747861390437958</v>
+        <v>0.3678714582430383</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9528245797731374</v>
+        <v>0.22459520608522338</v>
       </c>
       <c r="G59" t="n">
-        <v>1.0</v>
+        <v>0.37305644400596427</v>
       </c>
       <c r="H59" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I59" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60">
@@ -2646,28 +2679,28 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25813901563593994</v>
+        <v>0.23420859102559521</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3917895609503378</v>
+        <v>0.36887737456612224</v>
       </c>
       <c r="F60" t="n">
-        <v>2.6606370715786725E-6</v>
+        <v>0.6693923056083562</v>
       </c>
       <c r="G60" t="n">
-        <v>6.25249711820988E-5</v>
+        <v>0.7913930046517377</v>
       </c>
       <c r="H60" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I60" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61">
@@ -2675,28 +2708,28 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2581557288901466</v>
+        <v>0.23483150782717024</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3917895609503378</v>
+        <v>0.36887737456612224</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5316651309380105</v>
+        <v>0.3857846953395858</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6941183653912915</v>
+        <v>0.5728318203527183</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I61" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62">
@@ -2704,28 +2737,28 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2597735132388109</v>
+        <v>0.23685810366877325</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3917895609503378</v>
+        <v>0.36887737456612224</v>
       </c>
       <c r="F62" t="n">
-        <v>0.47700268903772985</v>
+        <v>0.21921945209130134</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6593860701403913</v>
+        <v>0.37040528111978505</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63">
@@ -2736,25 +2769,25 @@
         <v>12.0</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28693400899836274</v>
+        <v>0.25813901563593994</v>
       </c>
       <c r="E63" t="n">
-        <v>0.42577304561047374</v>
+        <v>0.38560130871385995</v>
       </c>
       <c r="F63" t="n">
-        <v>2.5663334276751346E-4</v>
+        <v>2.6606370715786725E-6</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0018556564784727896</v>
+        <v>5.2148486602941985E-5</v>
       </c>
       <c r="H63" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I63" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64">
@@ -2762,28 +2795,28 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D64" t="n">
-        <v>0.31652833075347503</v>
+        <v>0.2581557288901466</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4622318480844397</v>
+        <v>0.38560130871385995</v>
       </c>
       <c r="F64" t="n">
-        <v>0.41525846677144157</v>
+        <v>0.5316651309380105</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6145726369806371</v>
+        <v>0.7040970652962841</v>
       </c>
       <c r="H64" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I64" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65">
@@ -2791,28 +2824,28 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3284680890962052</v>
+        <v>0.2597735132388109</v>
       </c>
       <c r="E65" t="n">
-        <v>0.47217287807579494</v>
+        <v>0.38560130871385995</v>
       </c>
       <c r="F65" t="n">
-        <v>0.787872785666384</v>
+        <v>0.47700268903772985</v>
       </c>
       <c r="G65" t="n">
-        <v>0.87129461003106</v>
+        <v>0.6583980778267257</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I65" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66">
@@ -2820,28 +2853,28 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3764648153496638</v>
+        <v>0.28693400899836274</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5328425078795241</v>
+        <v>0.41936509007453016</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01580908695281022</v>
+        <v>2.5663334276751346E-4</v>
       </c>
       <c r="G66" t="n">
-        <v>0.045031944653459416</v>
+        <v>0.0017964333993725943</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I66" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67">
@@ -2852,25 +2885,25 @@
         <v>5.0</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3886355921196687</v>
+        <v>0.3284680890962052</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5417344617425686</v>
+        <v>0.47279497672938625</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5414555061928543</v>
+        <v>0.787872785666384</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6969454760409651</v>
+        <v>0.8675453145539959</v>
       </c>
       <c r="H67" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I67" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68">
@@ -2878,28 +2911,28 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4054883322629036</v>
+        <v>0.3764648153496638</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5567899487789124</v>
+        <v>0.5326405200320828</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
+        <v>0.01580908695281022</v>
       </c>
       <c r="G68" t="n">
-        <v>1.0</v>
+        <v>0.04694819761743641</v>
       </c>
       <c r="H68" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I68" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69">
@@ -2907,28 +2940,28 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4492140764583763</v>
+        <v>0.38125847749664876</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5999292536069484</v>
+        <v>0.5326405200320828</v>
       </c>
       <c r="F69" t="n">
-        <v>0.009463225974405225</v>
+        <v>1.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03176940148550326</v>
+        <v>1.0</v>
       </c>
       <c r="H69" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I69" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70">
@@ -2936,28 +2969,28 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4499469402052113</v>
+        <v>0.3886355921196687</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5999292536069484</v>
+        <v>0.5350779891502685</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04941215419788876</v>
+        <v>0.5414555061928543</v>
       </c>
       <c r="G70" t="n">
-        <v>0.10556232942276235</v>
+        <v>0.707481605857934</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I70" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71">
@@ -2965,28 +2998,28 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D71" t="n">
-        <v>0.46190090024779273</v>
+        <v>0.4054883322629036</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6070697546113847</v>
+        <v>0.5503055937853691</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4603642055344467</v>
+        <v>1.0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6458841092572835</v>
+        <v>1.0</v>
       </c>
       <c r="H71" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I71" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72">
@@ -2994,28 +3027,28 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D72" t="n">
-        <v>0.48100212111713936</v>
+        <v>0.4492140764583763</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6232703541236172</v>
+        <v>0.5936799905485427</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3587415648442824</v>
+        <v>0.009463225974405225</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5528148704157794</v>
+        <v>0.03197917743074869</v>
       </c>
       <c r="H72" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I72" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73">
@@ -3023,28 +3056,28 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5055856583295051</v>
+        <v>0.4499469402052113</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6460261189765898</v>
+        <v>0.5936799905485427</v>
       </c>
       <c r="F73" t="n">
-        <v>9.408724045714507E-4</v>
+        <v>0.04941215419788876</v>
       </c>
       <c r="G73" t="n">
-        <v>0.005527625376857273</v>
+        <v>0.10088314815402288</v>
       </c>
       <c r="H73" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I73" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74">
@@ -3052,28 +3085,28 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5127086662705831</v>
+        <v>0.46190090024779273</v>
       </c>
       <c r="E74" t="n">
-        <v>0.64615338762868</v>
+        <v>0.6011039112813742</v>
       </c>
       <c r="F74" t="n">
-        <v>8.55122635178211E-4</v>
+        <v>0.4603642055344467</v>
       </c>
       <c r="G74" t="n">
-        <v>0.005358768513783455</v>
+        <v>0.6445098877482253</v>
       </c>
       <c r="H74" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I74" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75">
@@ -3081,28 +3114,28 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5432803416874945</v>
+        <v>0.48100212111713936</v>
       </c>
       <c r="E75" t="n">
-        <v>0.675429613989858</v>
+        <v>0.617502723055787</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4592529736457164</v>
+        <v>0.3587415648442824</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6458841092572835</v>
+        <v>0.5408718977652257</v>
       </c>
       <c r="H75" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I75" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76">
@@ -3110,28 +3143,28 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5677618394679991</v>
+        <v>0.5055856583295051</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6964545230807455</v>
+        <v>0.6404085005507064</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5486592045428875</v>
+        <v>9.408724045714507E-4</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6969454760409651</v>
+        <v>0.0054238526851765985</v>
       </c>
       <c r="H76" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I76" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77">
@@ -3139,28 +3172,28 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5758923817023751</v>
+        <v>0.5127086662705831</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6971328831134015</v>
+        <v>0.6408858328382289</v>
       </c>
       <c r="F77" t="n">
-        <v>0.009995071258307802</v>
+        <v>8.55122635178211E-4</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03239781718210115</v>
+        <v>0.0052376261404665425</v>
       </c>
       <c r="H77" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I77" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78">
@@ -3168,28 +3201,28 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>26.0</v>
+        <v>3.0</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5853533809782956</v>
+        <v>0.5432803416874945</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6974136564671278</v>
+        <v>0.6702809410430127</v>
       </c>
       <c r="F78" t="n">
-        <v>1.469263463137458E-4</v>
+        <v>0.4592529736457164</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001150923046124342</v>
+        <v>0.6445098877482253</v>
       </c>
       <c r="H78" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I78" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79">
@@ -3197,28 +3230,28 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5912854913525649</v>
+        <v>0.5677618394679991</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6974136564671278</v>
+        <v>0.6915048044802552</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5912854913525649</v>
+        <v>0.5486592045428875</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7228443812223205</v>
+        <v>0.707481605857934</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I79" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80">
@@ -3226,28 +3259,28 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6515375676512443</v>
+        <v>0.5912854913525649</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7587526104292971</v>
+        <v>0.7110395149176414</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0012400947279755446</v>
+        <v>0.5912854913525649</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0068569943782177175</v>
+        <v>0.7439421304833103</v>
       </c>
       <c r="H80" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I80" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81">
@@ -3255,28 +3288,28 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D81" t="n">
-        <v>0.670261422307084</v>
+        <v>0.6639721370060545</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7708006356531465</v>
+        <v>0.7861090755453455</v>
       </c>
       <c r="F81" t="n">
-        <v>0.670261422307084</v>
+        <v>0.785549670321282</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7778342431711839</v>
+        <v>0.8675453145539959</v>
       </c>
       <c r="H81" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I81" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82">
@@ -3284,28 +3317,28 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7246670114773693</v>
+        <v>0.670261422307084</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8230785809372589</v>
+        <v>0.7861090755453455</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5998571286134238</v>
+        <v>0.670261422307084</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7229047447392543</v>
+        <v>0.7913930046517377</v>
       </c>
       <c r="H82" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I82" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83">
@@ -3313,28 +3346,28 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7992178965618336</v>
+        <v>0.7246670114773693</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8951341984143586</v>
+        <v>0.8395532450042693</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0017666441380390391</v>
+        <v>0.5998571286134238</v>
       </c>
       <c r="G83" t="n">
-        <v>0.00790783566550808</v>
+        <v>0.7441265646090574</v>
       </c>
       <c r="H83" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I83" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84">
@@ -3342,28 +3375,28 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8075667224825192</v>
+        <v>0.7532559717055134</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8951341984143586</v>
+        <v>0.8621604495424551</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8075667224825192</v>
+        <v>0.03139247890961037</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8826892082948464</v>
+        <v>0.07154564960794921</v>
       </c>
       <c r="H84" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I84" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85">
@@ -3371,28 +3404,28 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8261392258199973</v>
+        <v>0.8075667224825192</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9048191520885686</v>
+        <v>0.9133195075695157</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6954535464746323</v>
+        <v>0.8075667224825192</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7972272362026273</v>
+        <v>0.8793504311476319</v>
       </c>
       <c r="H85" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I85" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86">
@@ -3400,28 +3433,28 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8507064923541189</v>
+        <v>0.8261392258199973</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9138681786575029</v>
+        <v>0.9233320759164676</v>
       </c>
       <c r="F86" t="n">
-        <v>0.006783238346001335</v>
+        <v>0.6954535464746323</v>
       </c>
       <c r="G86" t="n">
-        <v>0.024524015558620212</v>
+        <v>0.811362470887071</v>
       </c>
       <c r="H86" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I86" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87">
@@ -3429,28 +3462,28 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8627447459565091</v>
+        <v>0.8507064923541189</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9138681786575029</v>
+        <v>0.9329447253710798</v>
       </c>
       <c r="F87" t="n">
-        <v>0.018556488743416682</v>
+        <v>0.006783238346001335</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05130323358474024</v>
+        <v>0.024620642885486328</v>
       </c>
       <c r="H87" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I87" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88">
@@ -3458,28 +3491,28 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8642014298174212</v>
+        <v>0.8627447459565091</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9138681786575029</v>
+        <v>0.9329447253710798</v>
       </c>
       <c r="F88" t="n">
-        <v>0.12562448668628526</v>
+        <v>0.018556488743416682</v>
       </c>
       <c r="G88" t="n">
-        <v>0.24790446525466925</v>
+        <v>0.053486349907495144</v>
       </c>
       <c r="H88" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I88" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89">
@@ -3487,28 +3520,28 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8994969166774236</v>
+        <v>0.8642014298174212</v>
       </c>
       <c r="E89" t="n">
-        <v>0.940383140162761</v>
+        <v>0.9329447253710798</v>
       </c>
       <c r="F89" t="n">
-        <v>0.279470232651137</v>
+        <v>0.12562448668628526</v>
       </c>
       <c r="G89" t="n">
-        <v>0.46690183629906024</v>
+        <v>0.23407117714933043</v>
       </c>
       <c r="H89" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I89" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90">
@@ -3516,28 +3549,28 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9110426463520168</v>
+        <v>0.8994969166774236</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9417519490380399</v>
+        <v>0.9601371582511824</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01567101619344605</v>
+        <v>0.279470232651137</v>
       </c>
       <c r="G90" t="n">
-        <v>0.045031944653459416</v>
+        <v>0.44898496393133486</v>
       </c>
       <c r="H90" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I90" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91">
@@ -3545,28 +3578,28 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9256661840446536</v>
+        <v>0.9110426463520168</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9462365436900902</v>
+        <v>0.9616561267049066</v>
       </c>
       <c r="F91" t="n">
-        <v>0.519276187572375</v>
+        <v>0.01567101619344605</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6941183653912915</v>
+        <v>0.04694819761743641</v>
       </c>
       <c r="H91" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I91" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92">
@@ -3574,28 +3607,28 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9555303621250077</v>
+        <v>0.9324330026739429</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9660306957747331</v>
+        <v>0.9697636125794217</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09970173477959156</v>
+        <v>9.391867229650867E-5</v>
       </c>
       <c r="G92" t="n">
-        <v>0.20826584598403572</v>
+        <v>7.670024904214874E-4</v>
       </c>
       <c r="H92" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I92" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93">
@@ -3603,28 +3636,28 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9819579835962416</v>
+        <v>0.9391394984979663</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9819579835962416</v>
+        <v>0.9697636125794217</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1353078739972877</v>
+        <v>0.001381837942658956</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2595702072601029</v>
+        <v>0.007523339910032094</v>
       </c>
       <c r="H93" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I93" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94">
@@ -3632,28 +3665,28 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E94" t="e">
-        <v>#N/A</v>
+        <v>106</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9555303621250077</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9760794021707068</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>0.09970173477959156</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0</v>
+        <v>0.19541540016799944</v>
       </c>
       <c r="H94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I94" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95">
@@ -3661,28 +3694,144 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9731065758876902</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9819579835962416</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0016365218593380518</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.007637102010244243</v>
+      </c>
+      <c r="H95" t="s">
+        <v>200</v>
+      </c>
+      <c r="I95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9819579835962416</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9819579835962416</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1353078739972877</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.24555873429137398</v>
+      </c>
+      <c r="H96" t="s">
+        <v>201</v>
+      </c>
+      <c r="I96" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.0</v>
       </c>
-      <c r="C95" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" t="e">
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E95" t="e">
+      <c r="E97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F97" t="n">
         <v>0.0</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G97" t="n">
         <v>0.0</v>
       </c>
-      <c r="H95" t="s">
-        <v>196</v>
-      </c>
-      <c r="I95" t="s">
-        <v>289</v>
+      <c r="H97" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>203</v>
+      </c>
+      <c r="I98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I99" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
